--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TL\JavaWeb\laptop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DA399C2-364D-49A4-936E-92CD488C4E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14865C41-CE90-4B23-B7E6-47CD3DE24982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{E15750D4-FAF1-466C-97F8-06C5A99EC093}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13056" xr2:uid="{E15750D4-FAF1-466C-97F8-06C5A99EC093}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
   <si>
     <t>1. Users</t>
   </si>
@@ -140,9 +140,6 @@
     <t>roleID</t>
   </si>
   <si>
-    <t>userID</t>
-  </si>
-  <si>
     <t>totalPrice</t>
   </si>
   <si>
@@ -153,6 +150,48 @@
   </si>
   <si>
     <t>productID</t>
+  </si>
+  <si>
+    <t>5. Carts</t>
+  </si>
+  <si>
+    <t>6. CartDetails</t>
+  </si>
+  <si>
+    <t>sum</t>
+  </si>
+  <si>
+    <t>Carts và User</t>
+  </si>
+  <si>
+    <t>1 Cart thuộc bn User</t>
+  </si>
+  <si>
+    <t>1 User có bn Carts</t>
+  </si>
+  <si>
+    <t>1 1</t>
+  </si>
+  <si>
+    <t>Cart và CartDetails</t>
+  </si>
+  <si>
+    <t>1-N</t>
+  </si>
+  <si>
+    <t>CartDetails và Product</t>
+  </si>
+  <si>
+    <t>receiverName</t>
+  </si>
+  <si>
+    <t>receiverPhone</t>
+  </si>
+  <si>
+    <t>receiverAddress</t>
+  </si>
+  <si>
+    <t>status</t>
   </si>
 </sst>
 </file>
@@ -194,9 +233,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -531,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC161475-1A5A-4869-B713-282989CFBFCD}">
-  <dimension ref="A2:J24"/>
+  <dimension ref="A2:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:E24"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -565,7 +605,7 @@
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -582,7 +622,7 @@
         <v>4</v>
       </c>
       <c r="J3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -599,7 +639,7 @@
         <v>34</v>
       </c>
       <c r="J4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -613,7 +653,7 @@
         <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="J5" t="s">
         <v>29</v>
@@ -626,6 +666,9 @@
       <c r="F6" t="s">
         <v>26</v>
       </c>
+      <c r="H6" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -634,6 +677,9 @@
       <c r="F7" t="s">
         <v>27</v>
       </c>
+      <c r="H7" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -642,6 +688,9 @@
       <c r="F8" t="s">
         <v>28</v>
       </c>
+      <c r="H8" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -673,6 +722,13 @@
       <c r="E14" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="F14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
@@ -681,6 +737,12 @@
       <c r="E15">
         <v>1</v>
       </c>
+      <c r="F15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
@@ -689,8 +751,19 @@
       <c r="E16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="F16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D18" s="1" t="s">
         <v>18</v>
       </c>
@@ -698,7 +771,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
         <v>19</v>
       </c>
@@ -706,7 +779,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
         <v>20</v>
       </c>
@@ -714,7 +787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D22" s="1" t="s">
         <v>21</v>
       </c>
@@ -722,7 +795,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
         <v>22</v>
       </c>
@@ -730,12 +803,52 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
         <v>23</v>
       </c>
       <c r="E24" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
